--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.1982124898393</v>
+        <v>451.7850143308738</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.0925115809673</v>
+        <v>618.1521879556508</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.8745595985268</v>
+        <v>559.1566107192076</v>
       </c>
       <c r="AD2" t="n">
-        <v>415198.2124898393</v>
+        <v>451785.0143308738</v>
       </c>
       <c r="AE2" t="n">
-        <v>568092.5115809673</v>
+        <v>618152.1879556507</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.61220655891158e-06</v>
+        <v>4.833266047355835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>513874.5595985268</v>
+        <v>559156.6107192076</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.0844622867513</v>
+        <v>164.2801524089803</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.0886707935838</v>
+        <v>224.7753520546847</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.2289801073872</v>
+        <v>203.3231079288382</v>
       </c>
       <c r="AD3" t="n">
-        <v>152084.4622867513</v>
+        <v>164280.1524089803</v>
       </c>
       <c r="AE3" t="n">
-        <v>208088.6707935838</v>
+        <v>224775.3520546847</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.838840575926405e-06</v>
+        <v>8.953121943747665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>188228.9801073872</v>
+        <v>203323.1079288382</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.903714491475</v>
+        <v>146.2095748642593</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.7940401794859</v>
+        <v>200.0503906403934</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.8754510817076</v>
+        <v>180.9578621302177</v>
       </c>
       <c r="AD4" t="n">
-        <v>121903.714491475</v>
+        <v>146209.5748642593</v>
       </c>
       <c r="AE4" t="n">
-        <v>166794.0401794859</v>
+        <v>200050.3906403934</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.249359354926584e-06</v>
+        <v>9.712689164637832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.894791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>150875.4510817076</v>
+        <v>180957.8621302177</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.8040697570609</v>
+        <v>146.1099301298453</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.6577018578452</v>
+        <v>199.9140523187527</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.7521246981322</v>
+        <v>180.8345357466423</v>
       </c>
       <c r="AD5" t="n">
-        <v>121804.0697570609</v>
+        <v>146109.9301298453</v>
       </c>
       <c r="AE5" t="n">
-        <v>166657.7018578452</v>
+        <v>199914.0523187527</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.265552526379682e-06</v>
+        <v>9.742650771432006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.886458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>150752.1246981322</v>
+        <v>180834.5357466423</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.2204384387965</v>
+        <v>278.8332035588058</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.2038634028835</v>
+        <v>381.5118903619213</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.876336790517</v>
+        <v>345.1009310010799</v>
       </c>
       <c r="AD2" t="n">
-        <v>255220.4384387965</v>
+        <v>278833.2035588058</v>
       </c>
       <c r="AE2" t="n">
-        <v>349203.8634028835</v>
+        <v>381511.8903619213</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.456566303523866e-06</v>
+        <v>6.588748834685123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.547916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>315876.336790517</v>
+        <v>345100.9310010799</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.4106803900831</v>
+        <v>139.8527638009456</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.2782285864039</v>
+        <v>191.3527213008605</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.0769379985592</v>
+        <v>173.0902861451915</v>
       </c>
       <c r="AD3" t="n">
-        <v>116410.6803900831</v>
+        <v>139852.7638009456</v>
       </c>
       <c r="AE3" t="n">
-        <v>159278.2285864039</v>
+        <v>191352.7213008605</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.293055796519934e-06</v>
+        <v>1.008938123816413e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.969791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>144076.9379985592</v>
+        <v>173090.2861451915</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.3454412203492</v>
+        <v>139.7875246312117</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.188965476225</v>
+        <v>191.2634581906816</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.9961940343342</v>
+        <v>173.0095421809665</v>
       </c>
       <c r="AD4" t="n">
-        <v>116345.4412203492</v>
+        <v>139787.5246312117</v>
       </c>
       <c r="AE4" t="n">
-        <v>159188.965476225</v>
+        <v>191263.4581906816</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.311316559824439e-06</v>
+        <v>1.012418907124992e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.959375</v>
       </c>
       <c r="AH4" t="n">
-        <v>143996.1940343342</v>
+        <v>173009.5421809665</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.933866846232</v>
+        <v>143.8607518286135</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2035400783782</v>
+        <v>196.8366273402654</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1504302884956</v>
+        <v>178.0508158889078</v>
       </c>
       <c r="AD2" t="n">
-        <v>122933.866846232</v>
+        <v>143860.7518286135</v>
       </c>
       <c r="AE2" t="n">
-        <v>168203.5400783782</v>
+        <v>196836.6273402654</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.963409825664913e-06</v>
+        <v>1.057076398975091e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.534375</v>
       </c>
       <c r="AH2" t="n">
-        <v>152150.4302884956</v>
+        <v>178050.8158889078</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3354375165391</v>
+        <v>149.1084374083473</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.2259632530825</v>
+        <v>204.0167422620021</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5980818479321</v>
+        <v>184.5456707198708</v>
       </c>
       <c r="AD2" t="n">
-        <v>127335.4375165391</v>
+        <v>149108.4374083473</v>
       </c>
       <c r="AE2" t="n">
-        <v>174225.9632530825</v>
+        <v>204016.7422620021</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.065386505866011e-06</v>
+        <v>1.028448587140464e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>157598.0818479321</v>
+        <v>184545.6707198708</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.8470893161195</v>
+        <v>133.8189748708707</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.0848072333238</v>
+        <v>183.0970250947553</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.0430291395306</v>
+        <v>165.622501998052</v>
       </c>
       <c r="AD3" t="n">
-        <v>122847.0893161195</v>
+        <v>133818.9748708707</v>
       </c>
       <c r="AE3" t="n">
-        <v>168084.8072333238</v>
+        <v>183097.0250947553</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204579112604393e-06</v>
+        <v>1.056709498637485e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.223958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>152043.0291395306</v>
+        <v>165622.501998052</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.5048867121169</v>
+        <v>158.4736698939537</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.8260552349285</v>
+        <v>216.8306665136999</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.0454632967744</v>
+        <v>196.1366520254462</v>
       </c>
       <c r="AD2" t="n">
-        <v>128504.8867121169</v>
+        <v>158473.6698939537</v>
       </c>
       <c r="AE2" t="n">
-        <v>175826.0552349285</v>
+        <v>216830.6665136999</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.588426853482009e-06</v>
+        <v>1.021753037262911e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.970833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>159045.4632967744</v>
+        <v>196136.6520254462</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.6343736763494</v>
+        <v>318.1807238045533</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.7128190125347</v>
+        <v>435.3489034522333</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.805490320828</v>
+        <v>393.799815122775</v>
       </c>
       <c r="AD2" t="n">
-        <v>282634.3736763494</v>
+        <v>318180.7238045533</v>
       </c>
       <c r="AE2" t="n">
-        <v>386712.8190125347</v>
+        <v>435348.9034522333</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243053337276984e-06</v>
+        <v>6.131847425529336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.804166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>349805.490320828</v>
+        <v>393799.815122775</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.8170092639225</v>
+        <v>142.4861290645342</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.5706739113268</v>
+        <v>194.9558078303767</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0551569626486</v>
+        <v>176.3494991532955</v>
       </c>
       <c r="AD3" t="n">
-        <v>118817.0092639225</v>
+        <v>142486.1290645342</v>
       </c>
       <c r="AE3" t="n">
-        <v>162570.6739113269</v>
+        <v>194955.8078303767</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.254033561083768e-06</v>
+        <v>9.934135771022207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.965625</v>
       </c>
       <c r="AH3" t="n">
-        <v>147055.1569626486</v>
+        <v>176349.4991532955</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.4438864981434</v>
+        <v>141.1130062987552</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.6919067652878</v>
+        <v>193.0770406843377</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.3556967161607</v>
+        <v>174.6500389068076</v>
       </c>
       <c r="AD4" t="n">
-        <v>117443.8864981434</v>
+        <v>141113.0062987552</v>
       </c>
       <c r="AE4" t="n">
-        <v>160691.9067652878</v>
+        <v>193077.0406843377</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.302790035348308e-06</v>
+        <v>1.002632274117174e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>145355.6967161607</v>
+        <v>174650.0389068076</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.0155959423358</v>
+        <v>163.5295225659125</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.0484918879002</v>
+        <v>223.7483071879483</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.2424603814702</v>
+        <v>202.3940827827163</v>
       </c>
       <c r="AD2" t="n">
-        <v>144015.5959423358</v>
+        <v>163529.5225659125</v>
       </c>
       <c r="AE2" t="n">
-        <v>197048.4918879002</v>
+        <v>223748.3071879483</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.2929927921424e-06</v>
+        <v>9.841972525460651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.342708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>178242.4603814702</v>
+        <v>202394.0827827163</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.8996210137666</v>
+        <v>195.6902023470803</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.5688892638646</v>
+        <v>267.7519680935761</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.9910864991112</v>
+        <v>242.1980960510509</v>
       </c>
       <c r="AD2" t="n">
-        <v>172899.6210137666</v>
+        <v>195690.2023470803</v>
       </c>
       <c r="AE2" t="n">
-        <v>236568.8892638646</v>
+        <v>267751.9680935761</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.240513071611819e-06</v>
+        <v>8.31134701674762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.819791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>213991.0864991112</v>
+        <v>242198.0960510509</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.7518888535262</v>
+        <v>136.1472690287341</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.6910379942271</v>
+        <v>186.2826998786313</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.400524894482</v>
+        <v>168.5041404516785</v>
       </c>
       <c r="AD3" t="n">
-        <v>124751.8888535262</v>
+        <v>136147.2690287341</v>
       </c>
       <c r="AE3" t="n">
-        <v>170691.0379942271</v>
+        <v>186282.6998786313</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.293022347856334e-06</v>
+        <v>1.037425065257795e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.060416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>154400.524894482</v>
+        <v>168504.1404516785</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.399071738822</v>
+        <v>251.6055749248103</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.5056862088094</v>
+        <v>344.2578476665271</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.6805821216186</v>
+        <v>311.4023618542603</v>
       </c>
       <c r="AD2" t="n">
-        <v>228399.071738822</v>
+        <v>251605.5749248103</v>
       </c>
       <c r="AE2" t="n">
-        <v>312505.6862088094</v>
+        <v>344257.8476665271</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.705276504476664e-06</v>
+        <v>7.124146551995508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.283333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>282680.5821216186</v>
+        <v>311402.3618542603</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.0136950396745</v>
+        <v>138.2201087171117</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.3668115993318</v>
+        <v>189.1188505875012</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.3479439660421</v>
+        <v>171.0696129174572</v>
       </c>
       <c r="AD3" t="n">
-        <v>115013.6950396745</v>
+        <v>138220.1087171117</v>
       </c>
       <c r="AE3" t="n">
-        <v>157366.8115993318</v>
+        <v>189118.8505875012</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.299607272921559e-06</v>
+        <v>1.018957123299682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>142347.9439660421</v>
+        <v>171069.6129174572</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.3997958539876</v>
+        <v>138.6062095314248</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.8950917670406</v>
+        <v>189.6471307552099</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.8258058159907</v>
+        <v>171.5474747674058</v>
       </c>
       <c r="AD4" t="n">
-        <v>115399.7958539876</v>
+        <v>138606.2095314248</v>
       </c>
       <c r="AE4" t="n">
-        <v>157895.0917670405</v>
+        <v>189647.1307552099</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.300369017196974e-06</v>
+        <v>1.019103584106228e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.99375</v>
       </c>
       <c r="AH4" t="n">
-        <v>142825.8058159907</v>
+        <v>171547.4747674058</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.3467606761067</v>
+        <v>404.4547347936232</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.9882882692418</v>
+        <v>553.3928114282196</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.8883533888297</v>
+        <v>500.5777781971984</v>
       </c>
       <c r="AD2" t="n">
-        <v>368346.7606761067</v>
+        <v>404454.7347936232</v>
       </c>
       <c r="AE2" t="n">
-        <v>503988.2882692417</v>
+        <v>553392.8114282195</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.813813859620403e-06</v>
+        <v>5.241921802753093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.443750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>455888.3533888297</v>
+        <v>500577.7781971983</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.7165441000055</v>
+        <v>154.809489047926</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.2710718471024</v>
+        <v>211.8171726279172</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.6346748147408</v>
+        <v>191.6016389596382</v>
       </c>
       <c r="AD3" t="n">
-        <v>142716.5441000055</v>
+        <v>154809.489047926</v>
       </c>
       <c r="AE3" t="n">
-        <v>195271.0718471024</v>
+        <v>211817.1726279172</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.01780874480413e-06</v>
+        <v>9.347797108719302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.053125</v>
       </c>
       <c r="AH3" t="n">
-        <v>176634.6748147408</v>
+        <v>191601.6389596382</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.9274339538738</v>
+        <v>144.027803978041</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.0900059605975</v>
+        <v>197.0651954609326</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.4294860935332</v>
+        <v>178.257569788936</v>
       </c>
       <c r="AD4" t="n">
-        <v>119927.4339538738</v>
+        <v>144027.803978041</v>
       </c>
       <c r="AE4" t="n">
-        <v>164090.0059605975</v>
+        <v>197065.1954609326</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.283676289000299e-06</v>
+        <v>9.843088178454215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.898958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>148429.4860935332</v>
+        <v>178257.569788936</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.2482848003968</v>
+        <v>160.3186595780224</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.1574023476928</v>
+        <v>219.3550627946416</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.104485351764</v>
+        <v>198.4201234683481</v>
       </c>
       <c r="AD2" t="n">
-        <v>138248.2848003968</v>
+        <v>160318.6595780224</v>
       </c>
       <c r="AE2" t="n">
-        <v>189157.4023476928</v>
+        <v>219355.0627946416</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.838132276952708e-06</v>
+        <v>9.698023352119398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>171104.485351764</v>
+        <v>198420.1234683481</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.2181952910616</v>
+        <v>134.3387682887216</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.5925708002796</v>
+        <v>183.8082293807258</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.5023324643069</v>
+        <v>166.2658299451511</v>
       </c>
       <c r="AD3" t="n">
-        <v>123218.1952910617</v>
+        <v>134338.7682887216</v>
       </c>
       <c r="AE3" t="n">
-        <v>168592.5708002796</v>
+        <v>183808.2293807258</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.244915922624419e-06</v>
+        <v>1.05134200939111e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.159374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>152502.3324643069</v>
+        <v>166265.8299451511</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.2176752038785</v>
+        <v>143.3375810170301</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.2236150771652</v>
+        <v>196.1208019551901</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.2640279540648</v>
+        <v>177.4033078739166</v>
       </c>
       <c r="AD2" t="n">
-        <v>122217.6752038785</v>
+        <v>143337.5810170301</v>
       </c>
       <c r="AE2" t="n">
-        <v>167223.6150771652</v>
+        <v>196120.8019551901</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.070718791817644e-06</v>
+        <v>1.060826082467312e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.404166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151264.0279540648</v>
+        <v>177403.3078739166</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.953119624894</v>
+        <v>145.4838900306817</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.9663708132876</v>
+        <v>199.0574766361376</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.6495803357234</v>
+        <v>180.0597104449642</v>
       </c>
       <c r="AD2" t="n">
-        <v>124953.119624894</v>
+        <v>145483.8900306817</v>
       </c>
       <c r="AE2" t="n">
-        <v>170966.3708132876</v>
+        <v>199057.4766361376</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.806234986631414e-06</v>
+        <v>1.044806165697643e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.715625000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>154649.5803357234</v>
+        <v>180059.7104449642</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.8978026043092</v>
+        <v>184.9226467949412</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.9886924176224</v>
+        <v>253.0193235561217</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.3252101939807</v>
+        <v>228.8715144308501</v>
       </c>
       <c r="AD2" t="n">
-        <v>165897.8026043093</v>
+        <v>184922.6467949412</v>
       </c>
       <c r="AE2" t="n">
-        <v>226988.6924176225</v>
+        <v>253019.3235561217</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.816341783508128e-06</v>
+        <v>9.077271834093793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.021875000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>205325.2101939807</v>
+        <v>228871.5144308501</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.9767657691719</v>
+        <v>227.9380270254581</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.4582538619387</v>
+        <v>311.874864492128</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.6917117390692</v>
+        <v>282.1099651442131</v>
       </c>
       <c r="AD2" t="n">
-        <v>204976.7657691719</v>
+        <v>227938.0270254581</v>
       </c>
       <c r="AE2" t="n">
-        <v>280458.2538619387</v>
+        <v>311874.864492128</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.9669156349478e-06</v>
+        <v>7.698109982538144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.040624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>253691.7117390692</v>
+        <v>282109.9651442131</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.7158971112097</v>
+        <v>137.2392429209141</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.0100366214318</v>
+        <v>187.7767867323994</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.5936401439329</v>
+        <v>169.8556337530875</v>
       </c>
       <c r="AD3" t="n">
-        <v>125715.8971112097</v>
+        <v>137239.2429209141</v>
       </c>
       <c r="AE3" t="n">
-        <v>172010.0366214318</v>
+        <v>187776.7867323995</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.303274282382796e-06</v>
+        <v>1.029141843443465e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.021875</v>
       </c>
       <c r="AH3" t="n">
-        <v>155593.6401439329</v>
+        <v>169855.6337530875</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.5118999370704</v>
+        <v>353.4856508538703</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.8527185329532</v>
+        <v>483.6546621845644</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.823967851932</v>
+        <v>437.4953400392506</v>
       </c>
       <c r="AD2" t="n">
-        <v>329511.8999370704</v>
+        <v>353485.6508538703</v>
       </c>
       <c r="AE2" t="n">
-        <v>450852.7185329532</v>
+        <v>483654.6621845644</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019595385600747e-06</v>
+        <v>5.665945317003151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>407823.967851932</v>
+        <v>437495.3400392506</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.1207742416857</v>
+        <v>147.0090947953627</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.4592750226101</v>
+        <v>201.1443290824585</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.3817582485764</v>
+        <v>181.9473966227247</v>
       </c>
       <c r="AD3" t="n">
-        <v>123120.7742416857</v>
+        <v>147009.0947953627</v>
       </c>
       <c r="AE3" t="n">
-        <v>168459.2750226101</v>
+        <v>201144.3290824585</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.169565093001229e-06</v>
+        <v>9.700131769080031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.9875</v>
       </c>
       <c r="AH3" t="n">
-        <v>152381.7582485764</v>
+        <v>181947.3966227247</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6422885164843</v>
+        <v>142.5306090701613</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.3316132765468</v>
+        <v>195.0166673363951</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.8389119393281</v>
+        <v>176.4045503134764</v>
       </c>
       <c r="AD4" t="n">
-        <v>118642.2885164843</v>
+        <v>142530.6090701614</v>
       </c>
       <c r="AE4" t="n">
-        <v>162331.6132765468</v>
+        <v>195016.6673363951</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.295746073759699e-06</v>
+        <v>9.936896780853647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>146838.9119393281</v>
+        <v>176404.5503134764</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.9458127678461</v>
+        <v>227.3411403115253</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.5746820155463</v>
+        <v>311.0581777573422</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.4650983285405</v>
+        <v>281.371221845168</v>
       </c>
       <c r="AD2" t="n">
-        <v>199945.8127678461</v>
+        <v>227341.1403115253</v>
       </c>
       <c r="AE2" t="n">
-        <v>273574.6820155463</v>
+        <v>311058.1777573422</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.084759707627649e-06</v>
+        <v>7.714749927807239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>247465.0983285405</v>
+        <v>281371.221845168</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.3373514409071</v>
+        <v>143.7946531890005</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.3873613844108</v>
+        <v>196.7461882654808</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.4121465435662</v>
+        <v>177.9690081924885</v>
       </c>
       <c r="AD2" t="n">
-        <v>122337.3514409071</v>
+        <v>143794.6531890005</v>
       </c>
       <c r="AE2" t="n">
-        <v>167387.3613844108</v>
+        <v>196746.1882654807</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139859463197218e-06</v>
+        <v>1.058442756961929e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.309375</v>
       </c>
       <c r="AH2" t="n">
-        <v>151412.1465435662</v>
+        <v>177969.0081924885</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.3485423226014</v>
+        <v>133.1625788054952</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.4026732424516</v>
+        <v>182.1989150399584</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.425997059366</v>
+        <v>164.8101063063792</v>
       </c>
       <c r="AD3" t="n">
-        <v>122348.5423226014</v>
+        <v>133162.5788054952</v>
       </c>
       <c r="AE3" t="n">
-        <v>167402.6732424516</v>
+        <v>182198.9150399584</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.156026137918632e-06</v>
+        <v>1.061771933544589e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.298958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>151425.997059366</v>
+        <v>164810.1063063792</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.0812586996046</v>
+        <v>176.6038733571514</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.8207757380888</v>
+        <v>241.6372107401608</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.7003367905229</v>
+        <v>218.5756944871452</v>
       </c>
       <c r="AD2" t="n">
-        <v>154081.2586996046</v>
+        <v>176603.8733571514</v>
       </c>
       <c r="AE2" t="n">
-        <v>210820.7757380888</v>
+        <v>241637.2107401608</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.545149638771446e-06</v>
+        <v>9.004778250009446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.603125</v>
       </c>
       <c r="AH2" t="n">
-        <v>190700.3367905229</v>
+        <v>218575.6944871452</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9470902714045</v>
+        <v>135.208487108729</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.5898770689613</v>
+        <v>184.9982170395457</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.4044572224341</v>
+        <v>167.3422468519718</v>
       </c>
       <c r="AD3" t="n">
-        <v>123947.0902714045</v>
+        <v>135208.487108729</v>
       </c>
       <c r="AE3" t="n">
-        <v>169589.8770689613</v>
+        <v>184998.2170395457</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.276706637256469e-06</v>
+        <v>1.045412735227151e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.104166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>153404.4572224341</v>
+        <v>167342.2468519718</v>
       </c>
     </row>
   </sheetData>
